--- a/data/productores.xlsx
+++ b/data/productores.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PutosHackers/Documents/Linterna Verde/CELE/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4876F9A-D1E9-3A4E-987A-FF3AA8932935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="no_RT" sheetId="1" r:id="rId1"/>
     <sheet name="todo" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -200,8 +194,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,19 +258,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -318,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,27 +336,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,24 +370,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -595,16 +545,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -677,7 +625,7 @@
         <v>1032</v>
       </c>
       <c r="D2">
-        <v>2.9401709401709399</v>
+        <v>2.94017094017094</v>
       </c>
       <c r="E2">
         <v>4479</v>
@@ -728,7 +676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -739,7 +687,7 @@
         <v>896</v>
       </c>
       <c r="D3">
-        <v>5.4634146341463419</v>
+        <v>5.463414634146342</v>
       </c>
       <c r="E3">
         <v>55659</v>
@@ -790,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -801,7 +749,7 @@
         <v>1019</v>
       </c>
       <c r="D4">
-        <v>9.1801801801801801</v>
+        <v>9.18018018018018</v>
       </c>
       <c r="E4">
         <v>54366</v>
@@ -852,7 +800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -914,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -925,7 +873,7 @@
         <v>1789</v>
       </c>
       <c r="D6">
-        <v>22.362500000000001</v>
+        <v>22.3625</v>
       </c>
       <c r="E6">
         <v>8290</v>
@@ -976,7 +924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1038,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1049,7 +997,7 @@
         <v>302</v>
       </c>
       <c r="D8">
-        <v>3.9736842105263159</v>
+        <v>3.973684210526316</v>
       </c>
       <c r="E8">
         <v>4750</v>
@@ -1100,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1162,7 +1110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1224,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1235,7 +1183,7 @@
         <v>156</v>
       </c>
       <c r="D11">
-        <v>3.4666666666666668</v>
+        <v>3.466666666666667</v>
       </c>
       <c r="E11">
         <v>2005</v>
@@ -1286,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1297,7 +1245,7 @@
         <v>129</v>
       </c>
       <c r="D12">
-        <v>3.3947368421052628</v>
+        <v>3.394736842105263</v>
       </c>
       <c r="E12">
         <v>1237</v>
@@ -1348,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1410,7 +1358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1472,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1534,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1545,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>0.10344827586206901</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="E16">
         <v>8400</v>
@@ -1596,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1658,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1720,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1731,7 +1679,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>1.2608695652173909</v>
+        <v>1.260869565217391</v>
       </c>
       <c r="E19">
         <v>2743</v>
@@ -1782,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1793,7 +1741,7 @@
         <v>141</v>
       </c>
       <c r="D20">
-        <v>6.4090909090909092</v>
+        <v>6.409090909090909</v>
       </c>
       <c r="E20">
         <v>7536</v>
@@ -1844,7 +1792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1855,7 +1803,7 @@
         <v>124</v>
       </c>
       <c r="D21">
-        <v>5.6363636363636367</v>
+        <v>5.636363636363637</v>
       </c>
       <c r="E21">
         <v>21870</v>
@@ -1906,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1968,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -2030,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2092,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2103,7 +2051,7 @@
         <v>9</v>
       </c>
       <c r="D25">
-        <v>0.69230769230769229</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E25">
         <v>1761</v>
@@ -2154,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2216,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -2227,7 +2175,7 @@
         <v>69</v>
       </c>
       <c r="D27">
-        <v>6.2727272727272716</v>
+        <v>6.272727272727272</v>
       </c>
       <c r="E27">
         <v>18028</v>
@@ -2278,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2340,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2351,7 +2299,7 @@
         <v>38</v>
       </c>
       <c r="D29">
-        <v>4.2222222222222223</v>
+        <v>4.222222222222222</v>
       </c>
       <c r="E29">
         <v>851</v>
@@ -2402,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2464,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2526,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -2537,7 +2485,7 @@
         <v>50</v>
       </c>
       <c r="D32">
-        <v>8.3333333333333339</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="E32">
         <v>5213</v>
@@ -2588,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -2650,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -2712,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -2774,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -2836,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -2904,16 +2852,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2975,7 +2921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2986,7 +2932,7 @@
         <v>1032</v>
       </c>
       <c r="D2">
-        <v>2.1772151898734182</v>
+        <v>2.177215189873418</v>
       </c>
       <c r="E2">
         <v>4479</v>
@@ -3037,7 +2983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3048,7 +2994,7 @@
         <v>896</v>
       </c>
       <c r="D3">
-        <v>4.4137931034482758</v>
+        <v>4.413793103448276</v>
       </c>
       <c r="E3">
         <v>55659</v>
@@ -3099,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -3110,7 +3056,7 @@
         <v>302</v>
       </c>
       <c r="D4">
-        <v>1.4876847290640389</v>
+        <v>1.487684729064039</v>
       </c>
       <c r="E4">
         <v>4758</v>
@@ -3161,7 +3107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3172,7 +3118,7 @@
         <v>1019</v>
       </c>
       <c r="D5">
-        <v>7.2269503546099294</v>
+        <v>7.226950354609929</v>
       </c>
       <c r="E5">
         <v>54366</v>
@@ -3223,7 +3169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3234,7 +3180,7 @@
         <v>129</v>
       </c>
       <c r="D6">
-        <v>1.0661157024793391</v>
+        <v>1.066115702479339</v>
       </c>
       <c r="E6">
         <v>10054</v>
@@ -3285,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -3347,7 +3293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3409,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -3420,7 +3366,7 @@
         <v>297</v>
       </c>
       <c r="D9">
-        <v>3.1263157894736842</v>
+        <v>3.126315789473684</v>
       </c>
       <c r="E9">
         <v>3021</v>
@@ -3471,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -3533,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -3544,7 +3490,7 @@
         <v>29</v>
       </c>
       <c r="D11">
-        <v>0.34523809523809518</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="E11">
         <v>2748</v>
@@ -3595,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -3657,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -3668,7 +3614,7 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>0.20588235294117649</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="E13">
         <v>5977</v>
@@ -3719,7 +3665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -3781,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -3843,7 +3789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -3854,7 +3800,7 @@
         <v>1529</v>
       </c>
       <c r="D16">
-        <v>25.065573770491799</v>
+        <v>25.0655737704918</v>
       </c>
       <c r="E16">
         <v>16000</v>
@@ -3905,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -3967,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3978,7 +3924,7 @@
         <v>231</v>
       </c>
       <c r="D18">
-        <v>4.0526315789473681</v>
+        <v>4.052631578947368</v>
       </c>
       <c r="E18">
         <v>15683</v>
@@ -4029,7 +3975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -4040,7 +3986,7 @@
         <v>141</v>
       </c>
       <c r="D19">
-        <v>2.6603773584905661</v>
+        <v>2.660377358490566</v>
       </c>
       <c r="E19">
         <v>7538</v>
@@ -4091,7 +4037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -4153,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -4215,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -4226,7 +4172,7 @@
         <v>9</v>
       </c>
       <c r="D22">
-        <v>0.24324324324324331</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="E22">
         <v>2054</v>
@@ -4277,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -4339,7 +4285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4350,7 +4296,7 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>9.375E-2</v>
+        <v>0.09375</v>
       </c>
       <c r="E24">
         <v>8533</v>
@@ -4401,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -4412,7 +4358,7 @@
         <v>143</v>
       </c>
       <c r="D25">
-        <v>5.1071428571428568</v>
+        <v>5.107142857142857</v>
       </c>
       <c r="E25">
         <v>5385</v>
@@ -4463,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -4525,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -4536,7 +4482,7 @@
         <v>21</v>
       </c>
       <c r="D27">
-        <v>1.2352941176470591</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="E27">
         <v>2174</v>
@@ -4587,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -4649,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -4711,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -4722,7 +4668,7 @@
         <v>69</v>
       </c>
       <c r="D30">
-        <v>6.2727272727272716</v>
+        <v>6.272727272727272</v>
       </c>
       <c r="E30">
         <v>18028</v>
@@ -4773,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -4784,7 +4730,7 @@
         <v>57</v>
       </c>
       <c r="D31">
-        <v>5.1818181818181817</v>
+        <v>5.181818181818182</v>
       </c>
       <c r="E31">
         <v>17706</v>
@@ -4835,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -4897,7 +4843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -4959,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -4970,7 +4916,7 @@
         <v>4</v>
       </c>
       <c r="D34">
-        <v>0.44444444444444442</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E34">
         <v>430</v>
@@ -5021,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -5032,7 +4978,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>0.22222222222222221</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E35">
         <v>3922</v>
@@ -5083,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -5094,7 +5040,7 @@
         <v>50</v>
       </c>
       <c r="D36">
-        <v>7.1428571428571432</v>
+        <v>7.142857142857143</v>
       </c>
       <c r="E36">
         <v>5213</v>
@@ -5145,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -5207,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -5269,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>57</v>
       </c>
